--- a/phi__y11.xlsx
+++ b/phi__y11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,9359 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9999999999999962</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.435165648772504</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4094101469868606</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4358879508630514</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4358769953701732</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4353212030402352</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4676359459967973</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.436180472042431</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4359854341343833</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4361781669626425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4363344736062401</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.5778574483458057</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.431224065416409</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9999999999999875</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4414137782502698</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.435128062385551</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4414541112629931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4414550244852571</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4414265294602699</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4492748065423929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.4414677780641927</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4414565327947126</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.441466399834774</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.4414766913033596</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.519674714554202</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4409581674460446</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.999999999999824</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4469985129910594</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4455314343479084</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4470006351634346</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.447000733768818</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.4469994971724499</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4488469152094577</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4470015035577306</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.447000748165579</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4470011782684417</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4470021138643966</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4881691773481237</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4469510701799298</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9999999999969089</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4516573522740469</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4513190913483089</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4516578822956474</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4516578930020926</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4516576042876805</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4520887491796397</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.4516582774663693</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4516578889077496</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4516582258570999</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.4516586648712789</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.4727541762721164</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4516531827760789</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9999999999898043</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4557305421993782</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4556530400715018</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4557309977265759</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.455731161429307</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.455730887132691</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4558312735298667</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.455731413211988</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4557310425159632</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4557313381647883</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.4557318475417387</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4663828166179236</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4557299889774525</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999999999970287</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4594879486938915</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4594704962511825</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4594884314366961</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4594885907449126</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.459488323081769</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4595117757638518</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4594888294034816</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.4594884769596287</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4594887719708982</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.4594892649127404</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4648245711370774</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.4594874800260179</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9999999999968002</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4630841979690464</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4630801843062262</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4630845573317215</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4630847221168127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4630844712214651</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4630900533204552</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.4630849455637198</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4630845976326814</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4630848872507056</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.4630853188717884</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.4657469033412937</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.4630836415809154</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9999999999749252</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4666003045248751</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4665970774474655</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4666005741868794</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4666009662679852</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4666005390309239</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4666037496493743</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.4666009354732026</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4666006142523428</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4666010773360321</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4666015114153377</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4679265951484797</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4665997284122116</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9999999999911799</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.470077200547049</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4700739747132345</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4700774701029994</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4700778617912291</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4700774349484164</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.470080644101176</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.4700778310117689</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4700775101407346</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.4700779730176481</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.4700784071745606</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.4707374485800263</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.4700766248702987</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9999999999926246</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.473535783357217</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4735325583053641</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4735360528479009</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4735364443831626</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.4735360177102453</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.4735392257723899</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.4735364136293895</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.4735360928622174</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.4735365556209982</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4735369898189312</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.4738645636801091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.4735352079437485</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999999999843111</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4769862798439954</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4769830553834767</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4769865492888041</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.476986940924592</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4769865141995021</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.4769897209555691</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4769869101865554</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.4769865892698317</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4769870519619334</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4769874862247209</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.4771502513811814</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.4769857046458921</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.000000000000025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4804336546982755</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.480430430784136</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4804339241062919</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4804343161703932</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4804338891203382</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4804370938355604</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4804342854442851</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4804339640288667</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.4804344266945045</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.4804348611004961</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4805157228381868</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.4804330797498048</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.000000000025444</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4838802318366165</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4838770085490931</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.4838805012111884</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.483880894281427</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4838804664367864</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4838836674551226</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4838808635668447</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.483880541021178</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.4838810037103239</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.4838814384354772</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.4839216111694778</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.4838796572745673</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.0000000000096</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4873270114074993</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4873237890016754</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4873272807478422</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.4873276759846335</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4873272464083724</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4873304401956148</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4873276452809049</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.4873273203310719</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4873277831313833</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.487328218551094</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.4873481866053874</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.4873264375515325</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.000000000021459</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4907743304096456</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4907711094823205</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4907745997100246</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4907749996089501</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4907745662867659</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4907777451532124</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4907749689005921</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.4907746388193814</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4907751019113823</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4907755388425615</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4907854880631175</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4907737579695699</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.00000000000847</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4942221934461902</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4942189754018556</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.4942224626911629</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4942228730586607</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4942224312952962</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4942255773918955</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4942228422492784</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.4942225007560885</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.4942229645513464</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.4942234048906796</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.4942284156001471</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4942216240777101</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9999999999605413</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4976704309923897</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4976672186851556</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4976707001497727</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.4976711314782366</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4976706730542234</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.497673751443492</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.497671101924336</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4976707359855908</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.4976712013447443</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.4976716487937966</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.4976743953730426</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.4976698679285066</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9999999999547804</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.5011187319823528</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.501115519983005</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.50111900111393</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5011194323999284</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5011189740209112</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5011220521147099</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.5011194028489567</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.501119036946282</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5011195022607132</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5011199496677551</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.5011226959730296</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.501118168973232</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.000000000000757</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5045669265506882</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5045637148568729</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5045671956566651</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5045676269016383</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5045671685662234</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5045702463672275</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5045675973534778</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5045672314856086</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5045676967557782</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5045681441202625</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5045708901643011</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5045663635951221</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.000000000006804</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5080146867016968</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5080114753133753</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5080149557820767</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.50801538698603</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5080149286942118</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.508018006202458</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5080153574406805</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5080149916076123</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5080154568335258</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5080159041554576</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5080186499382939</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.5080141237996789</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9999999999821082</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5114616846181964</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5114584735353015</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5114619536729849</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5114623848359273</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5114619265876962</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5114650038032492</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.511462355293388</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5114619894951132</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5114624546767803</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5114629019561693</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.5114656474778612</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5114611217697147</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.000000000011576</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5149075928380652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5149043820605</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5149078618672706</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.514908292989215</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5149078347845574</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5149109117075096</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.5149082634494851</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5149078976859928</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5149083628234276</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5149088100602869</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.5149115553209165</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.514907030043103</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.00000000002302</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.518352084203184</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5183488737308228</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5183523532068165</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.51835278428778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5183523261266778</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5183554027571496</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5183527547508583</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.518352389022134</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5183528541153545</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5183533013097017</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5183560463093769</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.518351521461719</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9999999999842746</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5217948321719227</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5217916220046116</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.5217951011499954</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5217955321899987</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5217950740724298</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5217981504105691</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5217955026558838</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5217951369619099</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.5217956020109389</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5217960491627953</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.521798793901648</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.5217942694839282</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.000000000014669</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5252355108352762</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5252323009728314</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5252357797878043</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.525236210786872</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5252357527128104</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5252388287587931</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.525236181255562</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.5252358155963179</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5252362806011817</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.5252367277105732</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5252394721887593</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5252349482007199</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9999999999872029</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5286737950881442</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.5286705855303535</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5286740640151457</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.528674494973306</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5286740369427214</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5286771126967504</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.5286744654447993</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5286740998202606</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.5286745647809898</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.528675011847946</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5286777560656474</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5286732325069887</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9999999999888903</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5321093607232522</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5321061514698747</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.5321096296247472</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.5321100605420327</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5321096025548906</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5321126780171972</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.5321100310163268</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5321096654264662</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.5321101303430958</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5321105773676501</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5321133213250729</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5321087981954556</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.000000000011608</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5355418845614011</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5355386756121674</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.5355421534374123</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5355425843138593</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5355421263701213</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5355452015409635</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.5355425547909519</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5355421892357384</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.5355426541083076</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.5355431010904972</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.5355458447878724</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5355413220869162</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9999999999934797</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5389710445199586</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5389678358745704</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5389713133705106</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5389717442061587</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5389712863057826</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5389743611854459</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.5389717146860471</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5389713491654471</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5389718139939988</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.5389722609338657</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.538975004371447</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5389704820987328</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9999999999805621</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5423965198794167</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5423933115375482</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.5423967887045374</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5423972194994308</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5423967616423695</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5423998362311671</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.5423971899821117</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5423968244960881</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5423972892806695</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5423977361782591</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5424004793563262</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5423959575113932</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.000000000024043</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5458179912802613</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.545814783241557</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.5458182600799799</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5458186908341663</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5458182330203692</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5458213073186412</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.5458186613196366</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5458182958681487</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5458187606088116</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.5458192074641732</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.5458219503830292</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5458174289653778</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9999999999821212</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5492351407943452</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5492319330584222</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.5492354095686942</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5492358402822246</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5492353825116375</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5492384565197502</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.549235810770481</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.549235445353485</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5492359100502849</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.5492363568634717</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5492390995234441</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5492345785325343</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.000000000040187</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5526476522779218</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5526444448443694</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5526479210269354</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5526483516998654</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5526478939724293</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.552650967690777</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5526483221909038</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5526479568083532</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5526484214613493</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.552648868232419</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.5526516106338591</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5526470900691118</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.000000000029036</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.5560552111355682</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5560520040039473</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5560554798592833</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5560559104916716</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5560554528073238</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.5560585262363271</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.5560558809854881</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5560555156373327</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.5560559802465888</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.5560564269756022</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.5560591691188855</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.556054648979682</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.000000000011825</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5594575047594246</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5594542979292688</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.5594577734578802</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5594582040497893</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5594577464084637</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.5594608195485692</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5594581745463796</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5594578092325665</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.5594582737981502</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.5594587204851722</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5594614623706975</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5594569426563806</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.000000000030701</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5628542224768847</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5628510159476999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.562854491150122</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5628549217016187</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5628544641032442</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5628575369549259</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.5628548922009781</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.562854526921451</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5628549914434336</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.5628554380885334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5628581797167228</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5628536604265962</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.9999999999792898</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5662450556400206</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5662418494112856</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.5662453242880836</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5662457547992376</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5662452972437403</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5662483698074972</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5662457253013615</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5662453600560609</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5662458245345182</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.5662462711377682</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5662490125090675</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.5662444936423964</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.000000000006082</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5696296978931283</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5696264919642942</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5696299665160628</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5696303969869478</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5696299394742491</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.5696330117506073</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.569630367491831</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5696300022806944</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.5696304667157059</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.5696309132771824</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.5696336543920609</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.569629135948072</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.000000000006357</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5730078450600029</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5730046394304943</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.5730081136578572</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5730085440885506</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5730080866185684</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5730111586080793</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5730085145961877</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5730081494191497</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5730086138107985</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5730090603305821</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5730118011895312</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5730072831674139</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.000000000030415</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.576379195411614</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5763759900808288</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5763794639844385</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.5763798943750209</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5763794369476695</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.5763825086509103</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5763798648854069</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5763794997423985</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5763799640907723</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.5763804105689462</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.5763831511724814</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5763786335713866</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.000000000002523</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5797434497253443</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5797402446926536</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.5797437182731919</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5797441486237478</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5797436912389371</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5797467626565103</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5797441191368765</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5797437540278264</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5797442183330157</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.579744664769668</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.5797474051183266</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.5797428879373683</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.000000000042331</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5831003114001223</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5830971066648711</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.5831005799230476</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.583101010233665</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.583100552891302</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.5831036240238352</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.5831009807495304</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.5831006156743641</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5831010799364642</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.583101526331686</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5831042664260279</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5830997496642829</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.00000000002039</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5864494864871047</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5864462820486117</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.5864497549851648</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5864501852559353</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5864497279559223</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5864527988040683</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.5864501557745311</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5864497907331707</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5864502549522802</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.5864507013061663</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5864534411467744</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5864489248032825</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9999999999927082</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5897906838923774</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5897874797499362</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5897909523656318</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.58979138259665</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5897909253388864</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.5897939959033224</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.5897913531179697</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5897909881103349</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5897914522865563</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.5897918985992052</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.5897946381866831</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5897901222604486</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.000000000027564</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.5931236154534507</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5931204116063283</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5931238839019607</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.593124314093325</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5931238568777063</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.5931269271591343</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.593124284617362</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5931239196433692</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.5931243837768084</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.5931248300483222</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.5931275693832967</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.593123053873287</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.00000000003281</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5964479958636759</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.596444792311115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5964482642875049</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5964486944393173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5964482372657353</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.5964513072648813</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.5964486649660644</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5964483000256273</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5964487641163941</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.5964492103468783</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.5964519494299971</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.5964474343351447</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9999999999812752</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5997635429982313</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5997603397394491</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5997638113974447</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.59976424150981</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5997637843781531</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.599766854095767</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.5997642120392603</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5997638471322899</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5997643111804977</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.5997647573700612</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.5997674962019932</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.5997629815211948</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9999999999771384</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.6030699779273888</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.603066774961578</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6030702463020542</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.6030706763750808</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6030702192852339</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6030732887220898</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.6030706469072267</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6030702820336312</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6030707460393968</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6030711921881523</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6030739307695879</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.6030694165017059</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9999999999818593</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.6063670249773274</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.606363822303656</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6063672933275149</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6063677233613149</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.606367266313159</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.6063703354700536</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.6063676938961488</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.6063673290558329</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.6063677930192771</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.6063682391273404</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.6063709774589912</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6063664636028523</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.9999999999854415</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.6096544117452039</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.6096512093628158</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.6096546800709848</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.609655110065673</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.6096546530590857</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.6096577219368398</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.6096550806031867</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.6096547157960532</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.6096551797173</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.6096556257847903</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6096583638673875</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.6096538504217862</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9999999999863928</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.6129318693386107</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.6129286672466262</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.612932137640059</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.612932567595753</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6129321106306097</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6129351792300655</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.6129325381359388</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.6129321733618878</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.6129326372410643</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.612933083268104</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6129358211023999</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6129313080660966</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.000000000010598</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.6161991322764639</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.6161959304739802</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6161994005536552</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.6161998304704769</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.6161993735466479</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.6162024418686719</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.6161998010133264</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.6161994362722546</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.6161999001094919</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.6162003460962071</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.6162030836829743</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.6161985710546952</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9999999999906405</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.6194559387347905</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.6194527372208805</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.6194562069878023</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.6194566368658757</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.6194561799832292</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.6194592480287087</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.6194566074113805</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.6194562427031824</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.6194567064986147</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.6194571524451344</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.6194598897851646</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.6194553775636045</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.000000000009042</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.622702030537354</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.6226988293110686</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.6227022987662661</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.6227027286057188</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6227022717641191</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6227053395339642</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.62270269915387</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.6227023344784373</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.6227027982322023</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.6227032441386585</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.6227059812327637</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.6227014694165844</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.000000000013932</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.6259371532083016</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.6259339522686684</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6259374214131953</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.625937851214158</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.6259373944134662</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.6259404619086084</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.6259378217649465</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.6259374571221687</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.625937920834407</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.6259383667009356</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6259411035499468</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.6259365921377781</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9999999999942667</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.6291610561033261</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.6291578554493511</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.6291613242842847</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6291617540468906</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.6291612972869651</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.6291643645083567</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.6291617246003075</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.6291613599900713</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.629161823660927</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.6291622694876661</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.6291650060924331</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.6291604950828742</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9999999999763024</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.6323734924040533</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.6323702920347211</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.632373760561162</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6323741902855478</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6323737335662434</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.6323768005148581</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.6323741608415836</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.6323737962637731</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6323742598933935</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.6323747056804846</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.6323774420418763</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.6323729314334953</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9999999999689163</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6355742192538649</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6355710191681374</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.6355744873872107</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6355749170735154</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.6355744603946842</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.6355775270715164</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.6355748876321606</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.635574523086658</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.6355749866751933</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.6355754324227807</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6355781685416838</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.6355736583330188</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9999999999821365</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.6387629977368</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.6387597979336185</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.6387632658464715</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6387636954948372</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.6387632388563286</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.6387663052623928</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.6387636660560823</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.6387633015427667</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.6387637650903703</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.6387642107986018</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6387669466759222</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.6387624368654804</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.000000000011363</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.6419395930422485</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6419363935205334</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.6419398611283361</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.641940290738908</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.6419398341405672</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.641942900276898</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.6419402613027428</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.6419398968214913</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.6419403603283194</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.6419408059973455</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.6419435416340059</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.6419390322202659</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.9999999999840039</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.6451037743564</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.6451005751150518</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.6451040424189955</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.6451044719919216</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.6451040154335919</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.6451070813012433</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.6451044425583359</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.6451040781090233</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.6451045415752352</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.6451049872052091</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6451077226021493</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.6451032135835617</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9999999999916823</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.6482553151708168</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.6482521162087154</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.6482555832100149</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.6482560127454452</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.6482555562269665</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.6482586218270118</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.6482559833144286</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.6482556188969272</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.6482560823226856</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.6482565279137629</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.6482592630719414</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.6482547544469267</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9999999999884382</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.6513939930678575</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.6513907943838625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6513942610837531</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.6513946905818407</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.6513942341030509</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.6513972994365818</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.651394661153383</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.651394296767563</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.6513947601530327</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.6513952057053726</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6513979406257628</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.6513934323927155</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9999999999875377</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6545195898882217</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.6545163914811744</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.654519857880912</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.6545202873418122</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.654519830902546</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.6545228959706737</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.6545202579159031</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.6545198935616323</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.6545203569069812</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.6545208024207448</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.6545235371043387</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6545190292616249</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.00000000000817</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.6576318918101157</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6576286936788382</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6576321597796995</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.6576325892035709</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.6576321328036595</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.6576351976075131</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.6576325597801989</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.6576321954573434</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.6576326587627421</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.6576331042380938</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.6576358386858984</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.6576313312318575</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.00000000000156</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.6607306892894173</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.660727491432713</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.6607309572359946</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.6607313866229979</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.660730930262271</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.6607339948029965</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6607313572021521</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.6607309929105756</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.6607314561761974</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.6607319016133039</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.6607346358263417</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.6607301287592878</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.000000000013007</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.6638157772108606</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.6638125796275147</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.6638160451345338</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.6638164744848316</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.6638160181631155</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.6638190824418778</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.6638164450665009</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.6638160808060648</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.6638165440320861</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.6638169894311163</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.6638197234104265</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.6638152167286473</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.000000000033486</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.6668869548243977</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.666883757513178</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.6668872227252699</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.6668876520390282</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6668871957561471</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.666890259774127</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.6668876226232012</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6668872583937651</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.6668877215803641</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.66688816694149</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.6668909006881257</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.666886394389885</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.000000000006152</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6699440258184201</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.6699408287780761</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6699442936965955</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.6699447229739819</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.6699442667297579</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.6699473304881527</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.6699446935606475</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.6699443293620692</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.669944792509427</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.6699452378328223</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.6699479713478528</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.6699434654313878</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.000000000012076</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6729867984006778</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.6729836016299428</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.6729870662562627</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.6729874954974473</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.6729870392916993</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.6729901027917236</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.6729874660865937</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.6729871019187287</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.6729875650270287</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.6729880103128704</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.6729907435973785</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.6729862380609043</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.000000000017926</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6760150852211618</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.6760118887187523</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.676015353054264</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.6760157822594192</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.6760153260919639</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.6760183893348476</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.6760157528510341</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.6760153887137365</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.6760158517831648</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.6760162970316316</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.6760190300867146</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.6760145249284224</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9999999999985976</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6790287034625193</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.6790255072271355</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.6790289712732475</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6790294004425478</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.6790289443131998</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.6790320073001884</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.6790293710366195</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.6790290069297409</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.6790294699604861</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.6790299151717585</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6790326479985284</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.679028143216586</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.00000000000234</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6820274749193882</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.6820242789497144</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6820277427078528</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.682028171841475</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.6820277157500465</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.6820307784824006</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.6820281424379915</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.6820277783613822</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.6820282413536344</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.6820286865278961</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.6820314191274771</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.6820269147200304</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.000000000015062</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6850112258474027</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.6850080301421085</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.6850114936137151</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.685011922711838</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.6850114666581389</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.6850145291371341</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.6850118933107869</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.685011529264295</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.6850119922182474</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.6850124373556836</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6850151697292138</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.6850106656943873</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.999999999963033</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.687979787098188</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.6879765916559274</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.6879800548424609</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6879804839052649</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.6879800278891037</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.6879830901160293</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.6879804545066343</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.6879800904901066</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.6879805534059539</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.6879809985067524</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.6879837306553818</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.687979226991279</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1.000000000008961</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6909329942456905</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.6909297990651025</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.6909332619680384</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.690933690995706</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.6909332350168882</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.6909362969930484</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.6909336615994828</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.6909332976127647</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.6909337604907039</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.6909342055550541</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.6909369374799464</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.6909324341846496</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.00000000000956</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.693870687275727</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.6938674923554374</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.6938709549762646</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.6938713839689806</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.6938709280273102</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.693873989754022</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.6938713545751525</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.6938709906180869</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.6938714534583176</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.6938718984864105</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.6938746301887413</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.6938701272603131</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.000000000002175</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6967927109149212</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.6967895162535412</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6967929785937648</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.6967934075517157</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.6967929516469944</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.6967960131255884</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.6967933781602696</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.6967930142326989</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.6967934770354217</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.6967939220274515</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.6967966535084071</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.6967921509448907</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.000000000011284</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6996989144621376</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.6996957200582659</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6996991821194048</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.6996996110427788</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.6996991551748069</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.699702216406626</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.6996995816537019</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.6996992177554662</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.6996996805208844</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.699700125477046</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.6997028567378252</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.6996983545372453</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9999999999820517</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.7025891518110454</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.7025859576632673</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.7025894194468546</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.7025898483358417</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.7025893925044168</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.7025924534908173</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7025898189491213</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.7025894550800591</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.7025899178083777</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.702590362728868</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.7025930937706809</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.7025885919310431</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.000000000014134</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.7054632815958264</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.7054600877027143</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.7054635492102975</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.705463978065089</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7054635222700077</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.7054665830123571</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7054639486807117</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.7054635848406609</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.7054640475320867</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.7054644924171045</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.7054672232411704</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.7054627217604641</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.000000000007848</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.7083211668903557</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.7083179732504702</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.7083214344836092</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.7083218633043983</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.7083214075454556</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.7083244680451329</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.7083218339223512</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.7083214701111473</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.7083219327658887</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.7083223776156348</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7083251082231848</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.7083206070993808</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1.000000000017249</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7111626755320217</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.7111594821439121</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.711162943104179</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.7111633718911611</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.7111629161681492</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.7111659764265454</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.7111633425114303</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.7111629787289085</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.7111634413471756</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.7111638861618519</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7111666165541271</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7111621157851801</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9999999999970625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7139876798672187</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.7139844867294225</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.7139879474184023</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.7139883761717735</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.713987920484484</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.7139909805030004</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7139883467943458</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.7139879830403393</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.7139884456223443</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.7139888904021544</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.7139916205804046</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.713987120164254</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.000000000002311</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.716796056925027</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.7167928640360707</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.7167963244553607</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.7167967531753187</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.7167962975235415</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.7167993573035898</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.7167967238001808</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.7167963600745216</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.7167968226204777</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.716797267365627</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.7167999973311119</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.7167954972656814</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9999999999966849</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7195876882597213</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.7195844956181211</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.719587955769329</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.7195883844560732</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.7195879288395963</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.7195909883825984</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.7195883550832108</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.7195879913857304</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.7195884538958525</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.7195888986065476</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7195916283605361</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.7195871286437339</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1.00000000000879</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7223624600436717</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.7223592676479342</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7223627275326789</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.7223631561864093</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.7223627006050201</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.7223657599124075</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.7223631268158096</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.7223627631463373</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.7223632256208418</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.7223636702972911</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.7223663998410595</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.7223619004707813</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1.000000000009435</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7251202629655499</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7251170708141713</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.7251205304340824</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.7251209590550018</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.7251205035084851</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.7251235625816987</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.7251209296866502</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.7251205660450148</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.7251210284841197</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.7251214731265324</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7251242024613671</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.725119703435493</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9999999999988018</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7278609923011012</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7278578003925685</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7278612597492859</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.7278616883375969</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.727861232825737</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7278642916662263</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.7278616589714797</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.7278612953575091</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.7278617577614336</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.7278622023700203</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7278649314972142</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.7278604328136125</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.000000000007176</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7305845478241811</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7305813561569728</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.7305848152521452</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.7305852438080525</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.7305847883306321</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.7305878469398557</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.7305852144441555</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.7305848508576763</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.7305853132266407</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.7305857578016136</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.730588486722468</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.730583988378994</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9999999999783258</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7332908337804841</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7332876423530701</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.7332911011883562</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.7332915297120646</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7332910742688656</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.7332941326482897</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.733291500350374</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.7332911367912121</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.7332915991254378</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.7332920436670098</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7332947723828332</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.7332902743773302</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.000000000011607</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7359797589708628</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.7359765677817044</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7359800263587715</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.7359804548504878</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7359799994412908</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.7359830575923895</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.7359804254909896</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.7359800619589693</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.7359805242586794</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.7359809687670653</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7359836972791721</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.7359791996094724</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.000000000004112</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7386512365450517</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.7386480455926031</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.7386515039131267</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.7386519323730586</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.7386514769976429</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.7386545349218974</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.7386519030157381</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.7386515395106839</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.7386520017761024</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.738652446251517</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7386551745612291</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.7386506772251541</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9999999999996392</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7413051841307833</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.7413019934134917</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7413054514791546</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.7413058799075111</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.7413054245656544</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.7413084822645538</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.7413058505523543</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.7413054870740884</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.7413059493054404</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.7413063937481003</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.7413091218567466</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7413046248521062</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9999999999942696</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7439415237397933</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.743938333256098</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.7439417910685918</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.7439422194655816</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.7439417641570621</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.743944821632101</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.7439421901125743</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.7439418266609195</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.7439422888584308</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.7439427332685529</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7439454611774673</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.7439409645020633</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999999999987016</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7465601817719471</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.7465569915202814</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.7465604490813038</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.7465608774471376</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.7465604221717315</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.746563479424411</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.746560848096265</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.746560484671043</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.7465609468349407</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.7465613912127437</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7465641189232645</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.7465596225748893</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.000000000003051</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7491610888693909</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.7491578988481823</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.749161356159438</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.7491617844943268</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.7491613292518099</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.7491643862836375</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.7491617551455748</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.7491613917466061</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.7491618538771182</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.7491622982228212</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7491650257362934</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.7491605297127303</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.000000000008099</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.7517441800205787</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.7517409902282483</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7517444472914478</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.7517448755956042</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.7517444203857505</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.7517474771982394</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7517448462489582</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.7517444828760629</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.7517449449734177</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.7517453892872407</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.7517481166050149</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.7517436209040379</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9999999999695857</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.7543093944669951</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.7543062049019589</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.7543096617188195</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.7543100899924555</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7543096348150394</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.7543126914097069</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.7543100606479007</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.7543096973008986</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.7543101593653259</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.7543106036474893</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.7543133307709188</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.7543088353902967</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.00000000000142</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.7568566756947632</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.7568534863554323</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.756856942927676</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.7568573711710049</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.7568569160257999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.756859972404169</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7568573418285268</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.7568569785072371</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.756857440538967</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.7568578847896922</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.7568606117201361</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.756856116657629</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.00000000000938</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.7593859713013756</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.7593827821861566</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.7593862385155102</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.7593866667287466</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.7593862116155244</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.7593892677791224</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.7593866373883305</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.7593862740925711</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.7593867360918343</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.7593871803113433</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.759389907050164</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.7593854123035261</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.00000000002034</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7618972330527898</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.7618940441600843</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.76189750024828</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.7618979284316378</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.7618974733501713</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.7619005293005294</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7618978990932692</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.7618975358228586</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.7618979977898868</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.7618984419784017</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.7619011685269659</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.7618966740939447</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9999999999738307</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7643904167615917</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.7643872280897984</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.764390683938572</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.7643911120922664</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.764390657042327</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.7643937127809795</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7643910827559305</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.7643907195106857</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.7643911814457111</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.7643916256034557</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.7643943519631315</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.7643898578414706</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.000000000004816</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.7668654824186935</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.7668622939662064</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.7668657495772983</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.7668661777015447</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.7668657226829032</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.7668687782113891</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.7668661483672266</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.7668657851469654</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.7668662470502199</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.7668666911774178</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.7668694173495788</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.7668649235370149</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.99999999999004</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7693223938495515</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.7693192056147624</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.7693226609899153</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.7693230890849304</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7693226340973569</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.7693256894172177</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.7693230597526153</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.7693226965571539</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.7693231584288713</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.7693236025257462</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.7693263285117675</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7693218350060335</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.00000000000618</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7717611189698826</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.7717579309511803</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.7717613860921407</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.7717618141581405</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.771761359201405</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.7717644143141851</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.7717617848278135</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.7717614216569686</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.7717618834973818</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.7717623275641586</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.7717650533654186</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7717605601642429</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.000000000009724</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7741816295036603</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.7741784416994304</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7741818966079478</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.7741823246451486</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7741818697190213</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.774184924626267</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.7741822953167954</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.7741819321703828</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.7741823939797258</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.7741828380166292</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.7741855636345066</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.7741810707356156</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9999999999909822</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7765839011047584</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.7765807135133854</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.776584168191211</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.7765845961998303</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.77658414130408</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.7765871960073398</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.7765845668734354</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7765842037512714</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.7765846655297783</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.7765851095370333</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.77658783497291</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.7765833423740258</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.999999999996306</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.7789679132114976</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.7789647258313629</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.7789681802802502</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.7789686082605052</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.7789681533949016</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.7789712078957259</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.7789685789360538</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.7789682158379542</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.7789686775858593</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.7789691215636911</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.7789718468189512</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.7789673545177932</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.000000000011001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7813336490177437</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.7813304618472284</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.7813339160689325</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7813343440210403</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.781333889185352</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.781336943485293</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.7813343146985178</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.7813339516242976</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.781334413341836</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.7813348572904705</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.7813375823664973</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.7813330903607839</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9999999999796074</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.783681095387024</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.7836779084245077</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.7836813624207849</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.7836817903449634</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.783681335538959</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.7836843896395695</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.7836817610243547</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.7836813979738297</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.7836818596612357</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.7836823035808983</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.7836850284790785</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.7836805367665254</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.000000000010977</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.7860102429680337</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.7860070562118944</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.7860105099845025</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.786010937880969</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.7860104831044175</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.7860135370072511</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.7860109085622592</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7860105455352446</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.7860110071927533</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.7860114510836699</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.7860141758053887</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.7860096843837115</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.9999999999976341</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.7883210858507723</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.7883178992993886</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.7883213528500846</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.7883217807190572</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.788321325971727</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.7883243796783377</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.7883217514022314</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7883213883985427</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.7883218500263884</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.7883222938887854</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.7883250184354297</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.7883205273023423</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.9999999999975023</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7906136217448663</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.7906104353966157</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.7906138887271581</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.7906143165688546</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.790613861850514</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.7906169153624569</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.7906142872538978</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.7906139242733498</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.7906143858717682</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.7906148297058713</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.7906175540788285</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.7906130632320442</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.000000000027843</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.792887851883023</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.7928846657362838</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.7928881188484301</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.7928885466630685</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.7928880919734863</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.7928911452923153</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.7928885173499658</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.7928881543923741</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.7928886159616</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.7928890597676349</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.7928917839682911</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.7928872934055243</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.00000000001215</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.7951437808498502</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.7951405949030006</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.7951440477985088</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.7951444755863063</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7951440209252508</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.7951470740525199</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.7951444462750428</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.7951440833402225</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.7951445448804905</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.7951449886586835</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.7951477126884258</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7951432224073907</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.9999999999926628</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.797381416666332</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.7973782309177517</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.797381683598378</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7973821113595524</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7973816567267926</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.7973847096640553</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.7973820820501132</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7973817191378796</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.7973821806494251</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.7973826244000015</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0.7973853482602156</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.7973808582586285</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.9999999999880703</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.7996007706982946</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.799597585146363</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.7996010376138635</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.7996014653486323</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.7996010107439373</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.7996040634927453</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7996014360410026</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7996010731511712</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.7996015346342286</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.7996019783574142</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.799604702049484</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.7996002123250625</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9999999999915383</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.8018018575502279</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.8017986721933266</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.8018021244494552</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.8018025521580359</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8018020975811738</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.8018051501430787</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.8018025228522003</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.8018021599845869</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.8018026214393906</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.8018030651354112</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0.8018057886607221</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.8018012992111831</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.000000000010921</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8039846949910756</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.8039815098275874</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.8039849618740967</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.8039853895567061</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.8039849350074475</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.8039879873839985</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.8039853602526507</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.8039849974070707</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.803985458833855</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.8039859025029354</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0.8039886258628687</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.803984136685935</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.9999999999778246</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.8061493039795355</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.8061461190078458</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.8061495708464863</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.8061499985033416</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8061495439814547</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.8061525961741997</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.8061499692010506</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.8061496063773205</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.8061500677763193</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.8061505114186849</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0.8061532346146217</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.8061487457080164</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.000000000001401</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.808295708602514</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.8082925238210091</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.8082959754535289</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.8082964030848465</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.808295948590102</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.8082990006005867</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.8082963737843056</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.8082960109822415</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.8082964723536885</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.8082969159695639</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.8082996390028829</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.8082951503643332</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9999999999975501</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.8104239358899669</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.8104207512970369</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.8104242027251816</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.8104246303311776</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8104241758633454</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.8104272276931133</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.8104246010323719</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.8104242382517901</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.8104246995959188</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.8104251431855283</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0.8104278660576074</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.8104233776848427</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9999999999876843</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.8125340159003772</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.8125308314944136</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.812534282719926</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.8125347103008165</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8125342558596669</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.812537307510259</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.8125346810037309</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8125343182444484</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.8125347795614918</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.8125352231250591</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0.812537945837273</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.8125334577280277</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.9999999999837114</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.8146259816233654</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.8146227974027632</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8146262484273827</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.8146266759833833</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8146262215686875</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.8146292730416415</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.8146266466880033</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.8146262839498373</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.8146267452400276</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.8146271887777767</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0.8146299113314972</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.814625423483509</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.9999999999944695</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.8166998688771069</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.8166966848402645</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.816700135665727</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.8167005631970528</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.8167001088085819</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.8167031601054333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.8167005339033636</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.8167001711861317</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.8167006324497009</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.8167010759618547</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0.8167037983584521</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.8166993107694628</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9999999999756676</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.8187557162297416</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.8187525323750607</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.8187559830030986</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.8187564105099638</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8187559561474905</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.8187590072697705</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.818756381217951</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.8187560185214712</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.8187564797586512</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.8187569232454323</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0.8187596454862716</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.81875515815403</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.999999999991155</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.8207935650780686</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.8207903814039539</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8207938318362958</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8207942593189149</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8207938049822112</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.820796855931448</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.8207942300285634</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.8207938673526539</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.8207943285636753</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.8207947720253062</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0.8207974941117517</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.8207930070340097</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.000000000012153</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.8228134593964123</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.8228102759012732</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.8228137261396431</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.8228141535982296</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.8228136992870684</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.8228167500647871</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.8228141243095252</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.8228137616540044</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.8228142228390981</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.8228146662758001</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.8228173882092124</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.8228129013837273</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.000000000004774</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.8248154458223569</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.8248122625046066</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.8248157125507247</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.8248161399854914</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.8248156856996465</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.8248187363073668</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.8248161106984192</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.8248157480631068</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.8248162092225025</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.8248166526344967</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.8248193744162319</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.824814887840768</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9999999999908473</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.8267995735439314</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.8267963904019876</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.8267998402575684</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.8268002676687283</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.8267998134079729</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.826802863847212</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.8268002383832734</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.8267998757679886</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.8268003369019159</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.8268007802894229</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.8268035019208337</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.8267990155931607</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9999999999936151</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.8287658942712578</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.8287627113035425</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.8287661609702962</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.8287665883580609</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.8287661341221709</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.82876918439444</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8287665590742092</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.8287661964787731</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.8287666575874598</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.8287671009506989</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.8287698224331351</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.8287653363510293</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9999999999917931</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.8307144620746421</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.8307112792795823</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.8307147287592135</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.8307151561237941</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.8307147019125449</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.8307177520193518</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.8307151268415314</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.830714764265764</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.8307152253494385</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.8307156686886297</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.8307183900234354</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.8307139041846797</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9999999999892216</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.8326453334479048</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.832642150823933</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.8326456001181414</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.8326460274597484</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8326455732729159</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.8326486232157632</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.8326459981790595</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.8326456356227829</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.8326460966816723</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.8326465399970333</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.832649261185549</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.8326447755879344</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9999999999897838</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.8345585671939257</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.8345553847394789</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.8345588338499578</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.8345592611688009</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8345588070061625</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.8345618567865479</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.8345592318896723</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.8345588693527082</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.8345593303870389</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.8345597736787872</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.8345624947223493</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.8345580093636729</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9999999999982151</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.836454224370898</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.836451042084418</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8364544910128558</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.8364549183091444</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8364544641704778</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.8364575137898934</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8364548890315613</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.8364545265137322</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.8364549875237297</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.8364554307920828</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.836458151692023</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.8364536665700898</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.000000000026104</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.8383323682297252</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.8383291861096615</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.8383326348577398</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.8383330621316818</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8383326080167655</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.8383356574766987</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.8383330328556301</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.8383326703567592</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.8383331313426484</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.8383335745878225</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0.8383362953454668</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.8383318104580899</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.000000000001378</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.8401930641217361</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.8401898821665416</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.8401933307359358</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.8401937579877392</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8401933038963525</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.8401963531982843</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.8401937287132044</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.8401933662331159</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.8401938271951207</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.8401942704173309</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0.8401969910340015</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.8401925063790021</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.000000000018503</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.8420363795718516</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.8420331977799869</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8420366461723658</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.8420370734022375</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.842036619334161</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.8420396684795672</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.8420370441292057</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.8420366816677239</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.8420371426060674</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.8420375858055286</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0.8420403062825416</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.8420358218577501</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.00000000000377</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.8438623840352665</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.8438592024051974</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.8438626506222241</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.84386307783037</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.843862623785384</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.843865672775735</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.8438630485588268</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.843862686115777</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.8438631470306814</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.8438635902076067</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0.8438663105462745</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.8438618263495279</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9999999999858222</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.8456711489731601</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.8456679675033596</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.8456714155466889</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.8456718427333135</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8456713887112005</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.8456744375479599</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.8456718134632452</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.8456714510384534</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.84567191193014</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.8456723550847428</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0.8456750752863703</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.8456705913155169</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9999999999955802</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.8474627477816774</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.8474595664706241</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.8474630143419051</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.847463441507213</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.8474629875077563</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.847466036192381</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.8474634122386054</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.8474630498318987</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.8474635107005877</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.8474639538330795</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0.8474666738989678</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.8474621901518633</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9999999999926178</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.8492372556483851</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.8492340744945648</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.8492375221954382</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.8492379493396331</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.8492374953626161</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.8492405438965577</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.8492379200724722</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.8492375576836778</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.8492380185295887</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.8492384616401806</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0.8492411815716239</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.8492366980461344</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.000000000009304</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.8509947495975804</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.8509915685994849</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.8509950161315851</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.850995443254869</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.8509949893000767</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.8509980376847796</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.8509954139891408</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.8509950516180869</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.8509955124414383</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.85099595553034</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0.8509986753286278</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.8509941920226284</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.000000000006187</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.8527353083067254</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.8527321274628548</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8527355748278074</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.8527360019303819</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.8527355479976004</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.8527385962345028</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.8527359726660731</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.8527356103125886</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.8527360711135978</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.8527365141810186</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0.8527392338474331</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.8527347507588098</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.000000000015945</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.8544590122398515</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.8544558315487124</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8544592787481367</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.8544597058302018</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.8544592519192179</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.8544623000097507</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.8544596765672984</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.8544593142312136</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.8544597750100965</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.8544602180562446</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.8544629375920626</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.8544584547187105</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9999999999985995</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.8561659434136203</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.8561627628737266</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.8561662099092323</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.8561666369709883</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.85616618308159</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.8561692310271772</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.8561666077094769</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.856166245390622</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.8561667061475945</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.8561671491726766</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0.856169868579169</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.8561653859189933</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.000000000007037</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.857856185471004</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.8578530050808765</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.857856451954067</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8578568789957123</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.8578564251276882</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.8578594729297474</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.8578568497355789</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.857856487433786</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.857856948169062</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.8578573911732841</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.8578601104517148</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.8578556280026322</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.000000000000007</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.8595298235551869</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.8595266433133548</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.8595300900258246</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.8595305170475563</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.859530063200697</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.8595331108606371</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.8595304877887876</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.859530125503889</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.8595305862176815</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.8595310292012488</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.8595337483528757</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.859529266112812</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.000000000020643</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.8611869442263304</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.8611837641313298</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.8611872106846651</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.8611876376866798</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.8611871838607763</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.8611902313800008</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.861187608429262</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.861187246161091</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.8611877068536125</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.8611881498167288</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.8611908688428036</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.8611863868096962</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.000000000014744</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.8628276355036917</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.8628244555540673</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.8628279019498458</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.8628283289323391</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.8628278751271833</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.8628309225070865</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.8628282996762588</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.8628279374246496</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.8628283980961107</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.8628288410389783</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.8628315599407451</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.8628270781125433</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.000000000006382</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.8644519867700011</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.8644488069643045</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.8644522532040949</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.8644526801672613</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8644522263826472</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.8644552736246163</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.864452650912506</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.8644522886772931</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.8644527493279035</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.8644531922507249</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0.8644559110294215</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.8644514294040843</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.000000000013747</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.8660600886980996</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.8660569090348913</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.8660603551202546</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.8660607820642875</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8660603283000088</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.8660633754054239</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.8660607528108429</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.8660603905918627</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.8660608512218313</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.8660612941248063</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0.8660640127816637</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.8660595313571622</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9999999999995863</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.867652033178548</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.867648853656397</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.867652299588884</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.8676527265139751</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8676522727698285</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.8676553197400609</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.8676526972618287</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.8676523350589185</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.867652795668452</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.8676532385517808</v>
+      </c>
+      <c r="M156" t="n">
+        <v>0.8676559570880218</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.8676514758623394</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9999999999984255</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.8692279133856745</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.8692247340031564</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.8692281797843106</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.8692286066906512</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.8692281529664331</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.8692311998028475</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.86922857743979</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.869228215252787</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.8692286758420922</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.8692291187059726</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.8692318371228162</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.8692273560939446</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9999999999895217</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.8707878235772814</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.8707846443329814</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8707880899643361</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.8707885168521163</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8707880631476248</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.8707911098515769</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.8707884876025269</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.8707881254312705</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.870788586000552</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.8707890288451815</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.8707917471438359</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.870787266309783</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.000000000011491</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.8723318591776927</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.8723286800702046</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.872332125553284</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.8723325524226925</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.8723320987377272</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.8723351453105649</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.8723325231743624</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.8723321610186918</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.8723326215681536</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.8723330643937278</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.8723357825753962</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.8723313019341787</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.000000000012398</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.873860116603962</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.8738569376318872</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.873860382968207</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.8738608098194316</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8738603561537925</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.8738634025968555</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.8738607805723473</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.8738604184321037</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.8738608789619484</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.873861321768662</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.8738640398345392</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.8738595593841877</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9999999999957329</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8753726933222788</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.8753695144842284</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.875372959675294</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.8753733865085215</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.8753729328620106</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.8753759791766298</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.8753733572626703</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.8753729951376955</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.8753734556481243</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.8753738984361712</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.8753766163874447</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.875372136126001</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9999999999900832</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.8768696877793619</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.8768665090739551</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.8768699541212628</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.8768703809366782</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8768699273090986</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.8768729734965975</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.8768703516920479</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.8768699895821843</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.8768704500733971</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.8768708928429695</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.8768736106808206</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.8768691306063379</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.000000000006213</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8783511993095908</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.8783480207354556</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.8783514656404924</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.8783518924382803</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8783514388294358</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.8783544848911293</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.8783518631948578</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.8783515010999492</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.8783519615721449</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.8783524043234338</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.878355122049035</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.8783506421595807</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.000000000001603</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8798173281074377</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.8798141496632111</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.8798175944274541</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.8798180212077972</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.879817567617494</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.8798206135546873</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.8798179919655702</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.8798176298854615</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.8798180903388373</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.8798185330720326</v>
+      </c>
+      <c r="M164" t="n">
+        <v>0.8798212506865485</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.8798167709802024</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9999999999956947</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8812681752328216</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.8812649969171498</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.8812684415420665</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.8812688683051465</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.8812684147331911</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.8812714605471819</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.8812688390641026</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.8812684769986395</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.8812689374333916</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.8812693801486821</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0.8812720976532702</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.881267618128124</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9999999999954039</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.8827038425055429</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.8827006643170808</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.8827041088041291</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.8827045355501265</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.8827040819963268</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.8827071276884044</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.8827045063102533</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.8827041442592826</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.8827046046756061</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.8827050473731791</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.8827077647689902</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.8827032854231475</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9999999999961166</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.8841244324739017</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.8841212544113133</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8841246987619409</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.8841251254910354</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.8841246719552012</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.8841277175266451</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.8841250962523205</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.8841247342156903</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.8841251946137785</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.8841256372938198</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.8841283545819955</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.8841238754135743</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9999999999903099</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.885530048385026</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.8855268704469845</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8855303146626291</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.885530741374999</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8855302878569403</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.8855333333090226</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.8855307121374301</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.8855303501149887</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.8855308104950341</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.885531253157729</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.8855339703394033</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.8855294913465338</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.000000000001928</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.8869207941798047</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.8869176163649922</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.8869210604470826</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.8869214871429041</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.8869210336424336</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.8869240789764162</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.8869214579064696</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.886921095898067</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.8869215562602601</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.8869219989057919</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.8869247159820918</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.8869202371629169</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9999999999939553</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.8882967743234663</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.8882935966305748</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.8882970405805284</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.8882974672599777</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8882970137769082</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.8883000589940457</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.888297438024665</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.8882970760301525</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.888297536374683</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.8882979790032342</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0.8883006959752778</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.8882962173279537</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.000000000002355</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.8896580939577124</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.889654916385443</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.8896583602046676</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.8896587868679188</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.8896583334020652</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.8896613785036016</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.8896587576337163</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.8896583956529457</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.8896588559800018</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.889659298591753</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0.8896620154606513</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.8896575369833475</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.000000000002812</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.8910048586852897</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.8910016812323525</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.891005124922246</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.8910055515694723</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.8910050981206507</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.8910081431078217</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.8910055223363678</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.8910051603691925</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.8910056206789612</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.8910060632740923</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.8910087800409473</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.8910043017318462</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.000000000008465</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.8923371746192739</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.8923339972843892</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.8923374408463387</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.8923378674777122</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.8923374140457394</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.8923404589197724</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.8923378382456941</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.892337476291968</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.8923379365846345</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.8923383791633239</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0.8923410958292297</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.8923366176865281</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.000000000011865</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.8936551483424333</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.8936519711243295</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.8936554145597128</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.8936558411754039</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.8936553877600993</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.8936584325222113</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.8936558119444608</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.893655450004039</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.8936559102797877</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.8936563528422119</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.8936590694082555</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.8936545914301617</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9999999999977286</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.8949588868184197</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.894955709715836</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.8949591530260199</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.8949595796261978</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8949591262273811</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.8949621708787809</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.8949595503963177</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.8949591884690569</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.8949596487280702</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.8949600912744057</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.8949628077416644</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.8949583299264017</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.000000000003022</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.8962484974466753</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.8962453204583599</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.896248763644701</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.896249190229534</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.8962487368470266</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.896251781388914</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.8962491610007056</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.896248799086463</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.8962492593289223</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.8962497018593432</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0.8962524182288883</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.8962479405746915</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.000000000023825</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.897524087938638</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.8975209110633483</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8975243541271933</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.8975247806968479</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.8975243273304724</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.8975273717640381</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.8975247514690596</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.8975243895676939</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.8975248497937793</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.8975252923084586</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0.8975280085813517</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.8975235310864705</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.000000000012709</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.8987857662878712</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.8987825895243748</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.898786032467059</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.8987864590217011</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.8987860056712819</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.898789049997706</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.8987864297949418</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.8987860679063127</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.8987865281162022</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.8987869706153118</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0.8987896867926063</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.8987852094553044</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9999999999916492</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.9000336408065301</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.900030464153604</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.9000339069764534</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.9000343335162468</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.9000338801816091</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.9000369244020643</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.9000343042905053</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.9000339424144729</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.9000344026083444</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.9000348450920544</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0.9000375611747963</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.9000330839933495</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9999999999863527</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.9012678200550538</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.9012646435114842</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.901268086215814</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.9012685127409222</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.9012680594218929</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.9012711035375417</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.9012684835161868</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.9012681216526132</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.9012685818306424</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.901269024299122</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0.9012717402883491</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.9012672632610469</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.000000000004662</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.9024884127814996</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.9024852363460829</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9024886789331981</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.9024891054437822</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.9024886521401897</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.9024916961521856</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.9024890762200423</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.9024887143687903</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.9024891745311514</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.9024896169845679</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.9024923328813091</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.9024878560064554</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.9999999999967847</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.9036955278528735</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.9036923515244152</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9036957939956096</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.9036962204918304</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.9036957672035041</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.9036988111129919</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9036961912690749</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.9036958294300086</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.9036962895768746</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.9036967320153949</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.9036994478206709</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.9036949710965829</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.000000000012348</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.9048892743898121</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.9048860981671278</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.9048895405236852</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.9048899670057015</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.9048895137324722</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.9048925575405866</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.9048899377839192</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.9048895759569037</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.9048900360884464</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.9048904785122354</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.9048931942270584</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.904888717652067</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.000000000002257</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.9060697615199604</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.9060665854018755</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.9060700276450693</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.9060704541130384</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.9060700008547392</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.9060730445626057</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.906070424892219</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.9060700630771207</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.9060705231935099</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.9060709656027313</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0.9060736812281059</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.9060692048005554</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1.000000000003552</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.9072370985544771</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.907233922539826</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.9072373646709189</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.9072377911249977</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.907237337881462</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.907240381490197</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.9072377619051303</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.9072374001018161</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.9072378602032207</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.9072383025980373</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0.9072410181349586</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0.9072365418532078</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.000000000001275</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.9083913947758111</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.9083882188634386</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.9083916608836833</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.9083920873240262</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.9083916340950893</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.9083946776058003</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.9083920581051004</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.9083916963134387</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.9083921564000264</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.9083925987805984</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0.9083953142300552</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.9083908380924749</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1.000000000000486</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.9095327595339485</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.9095295837227092</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.9095330256333467</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.9095334520601087</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.9095329988456063</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.9095360422593913</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.9095334228421135</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.9095330610619738</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.9095335211339105</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.9095339635003977</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0.9095366788633692</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.9095322028683455</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.9999999999967284</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9106613021708782</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.9106581264596351</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.9106615682618974</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.9106619946752305</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.9106615414750012</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9106645847929483</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.9106619654581557</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.9106616036894086</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.910662063746859</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.9106625060994196</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0.9106652213768771</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.9106607455228083</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.999999999994555</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.9117771319637497</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.9117739563513771</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.9117773980464846</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.9117778244465399</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.9117773712604229</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.9117804144836124</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.9117777952303752</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.9117774334728928</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.9117778935160193</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.9117783358548108</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0.9117810510477175</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.9117765753330165</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.000000000006647</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.9128803581931855</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.9128771826785662</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.9128806242677296</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.912881050654657</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.9128805974824932</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9128836406119941</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.912881021439392</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.9128806596930465</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.9128811197220118</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.9128815620471894</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.9128842771564996</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.9128798015795926</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.000000000002655</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.9139710899802134</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.9139679145622405</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9139713560466594</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9139717824206073</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.9139713292622387</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.9139743722991124</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.913971753206232</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.9139713914708978</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.9139718514858618</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.9139722937975797</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.9139750088242391</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.913970533383567</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.9999999999950936</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.9150494364149035</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.9150462610924798</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.9150497024733436</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.9150501288344597</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.9150496756897295</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.9150527186350271</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.9150500996209638</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.9150497378965158</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.9150501978976375</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.9150506401960489</v>
+      </c>
+      <c r="M192" t="n">
+        <v>0.9150533551409958</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.9150488798350115</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.000000000003182</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.9161155064105765</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.916112331182614</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9161157724611017</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.9161161988095318</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.9161157456782847</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.9161187885330491</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.9161161695969053</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.9161158078832194</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.9161162678706566</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.9161167101559125</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0.9161194250200778</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.9161149498472483</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.000000000003869</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.9171694087258261</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.9171662335912466</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.9171696747685263</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.9171701011044152</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.9171696479864978</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.9171726907517616</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.9171700718926484</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.917169710189602</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.9171701701635108</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.9171706124357617</v>
+      </c>
+      <c r="M194" t="n">
+        <v>0.9171733272200658</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.9171688521788726</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.9999999999951383</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.9182112519485169</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.9182080769062519</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.9182115179834824</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.9182119443069734</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9182114912022327</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.9182145338790199</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.9182119150960563</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.9182115534035277</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.9182120133640627</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.9182124556234574</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0.9182151703288142</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.9182106954177508</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.9999999999942213</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.9192411444718439</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.9192379695208348</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.9192414104991626</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.9192418368103985</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.9192413837186835</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.9192444263080085</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.9192418076003213</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.9192414459181897</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.9192419058655042</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.9192423481121909</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.9192450627395059</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.9192405879570799</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.000000000007802</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.9202591944592169</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.9202560195984143</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.9202594604789776</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.9202598867780986</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.92025943369926</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.9202624762021281</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.9202598575688515</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.9202594958969976</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.920259955831244</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.920260398065368</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.9202631126155376</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.9202586379602715</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1.000000000006905</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.9212655097977787</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.9212623350261422</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.9212657758100677</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.9212662020972133</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.9212657490311028</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9212687914485106</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.9212661728887875</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.9212658112270926</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.9212662711484214</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.921266713370128</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.9212694278440409</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.9212649533144692</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.9999999999970212</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.9222601981424746</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.922257023458975</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.9222604641473786</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.9222608904226877</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.9222604373691577</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.9222634797020919</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.9222608612150727</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.9222604995634197</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.9222609594719801</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.9222614016814129</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.9222641160799495</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.9222596416746207</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1.000000000009732</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.9232433668783764</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.9232401922819924</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.9232436328759808</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.92324405913959</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.9232436060984957</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.9232466483479342</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.9232440299327773</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.9232436682910499</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.9232441281869895</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.9232445703842908</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.9232472847083238</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.9232428104257994</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.9999999999948469</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.9242151230093009</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.9242119484990216</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.9242153889996908</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.924215815251736</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.9242153622229325</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.9242184043898448</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.9242157860457159</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.9242154244137987</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0.9242158842972644</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.9242163264825745</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.9242190407329692</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.9242145665718234</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
